--- a/graph_generation/results_pathCompare/gpt3.5/level_6/k_3.xlsx
+++ b/graph_generation/results_pathCompare/gpt3.5/level_6/k_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>prompt</t>
   </si>
@@ -76,23 +76,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 5 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 2 0 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 3 0 0 5 0 0 0 0 0 0 0
- F 0 4 0 0 3 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 1 0 0 3 0 0 0
- J 0 0 0 0 0 3 0 0 1 0 5 0 0 4 0 0
- K 0 0 0 0 0 0 0 0 0 5 0 3 0 0 3 0
- L 0 0 0 0 0 0 0 3 0 0 3 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 2 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0 3
+ A 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 3 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ F 0 2 0 0 0 0 3 0 0 1 0 0 0 0 0 0
+ G 0 0 4 0 0 3 0 5 0 0 0 0 0 0 0 0
+ H 0 0 0 4 0 0 5 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 4 0 0 5 0 0 0
+ J 0 0 0 0 0 1 0 0 4 0 4 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0
+ L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 3
  P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -144,27 +144,27 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 2 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 1 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 2 0 0 2 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 5 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 2 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 3 0 0 5 0 0 0 0 0 0 0
+ F 0 2 0 0 3 0 4 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 5 0 0 4 0 0 0 0 0
+ H 0 0 0 4 0 0 5 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 5 0 0 0 0 4 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 2 0 0 1 0 0
+ K 0 0 0 0 0 0 4 0 0 2 0 4 0 0 5 0
+ L 0 0 0 0 0 0 0 1 0 0 4 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 3 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -210,25 +210,23 @@
  P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0
 Solution: A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 5 0 0 4 0 0 0 0 0 0 0
- F 0 3 0 0 5 0 4 0 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 4 0 0 0 0 4 0 0 0 0 0
- H 0 0 0 4 0 0 0 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- K 0 0 0 0 0 0 4 0 0 0 0 2 0 0 0 0
- L 0 0 0 0 0 0 0 4 0 0 2 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 2 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+What is the least cost path from node A to node N? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N
+ A 0 3 0 0 5 0 0 0 0 0 0 0 0 0
+ B 3 0 2 0 0 5 0 0 0 0 0 0 0 0
+ C 0 2 0 4 0 0 3 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 4 0 0 0 0 0 0
+ E 5 0 0 0 0 0 0 0 3 0 0 0 0 0
+ F 0 5 0 0 0 0 4 0 0 0 0 0 0 0
+ G 0 0 3 0 0 4 0 1 0 0 1 0 0 0
+ H 0 0 0 4 0 0 1 0 0 0 0 5 0 0
+ I 0 0 0 0 3 0 0 0 0 1 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 2 0 0 0
+ K 0 0 0 0 0 0 1 0 0 2 0 0 1 0
+ L 0 0 0 0 0 0 0 5 0 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 3
+ N 0 0 0 0 0 0 0 0 0 0 0 4 3 0
+Let's list down all the possible paths from node A to node N, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -280,22 +278,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
- A 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 4 0 3 0 0 0 0 0 0 0 0 0 0
  C 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0
- D 5 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- E 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- F 0 0 1 0 1 0 4 0 0 5 0 0 0 0 0
- G 0 0 0 0 0 4 0 0 0 0 1 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- J 0 0 0 0 0 5 0 0 0 0 2 0 0 3 0
- K 0 0 0 0 0 0 1 0 0 2 0 0 0 0 3
- L 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0
- M 0 0 0 0 0 0 0 0 2 0 0 2 0 5 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 5 0 5
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
+ D 4 0 0 0 3 0 0 2 0 0 0 0 0 0 0
+ E 0 3 0 3 0 2 0 0 5 0 0 0 0 0 0
+ F 0 0 1 0 2 0 3 0 0 4 0 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0
+ H 0 0 0 2 0 0 0 0 3 0 0 3 0 0 0
+ I 0 0 0 0 5 0 0 3 0 4 0 0 4 0 0
+ J 0 0 0 0 0 4 0 0 4 0 5 0 0 0 0
+ K 0 0 0 0 0 0 3 0 0 5 0 0 0 0 4
+ L 0 0 0 0 0 0 0 3 0 0 0 0 3 0 0
+ M 0 0 0 0 0 0 0 0 4 0 0 3 0 1 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -347,23 +345,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 5 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 3 0 0 1 0 0 0 0 0 0 0 0 0
  D 0 0 3 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 4 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0
- H 0 0 0 2 0 0 4 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 5 0 0 2 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ E 5 0 0 0 0 3 0 0 5 0 0 0 0 0 0 0
+ F 0 2 0 0 3 0 1 0 0 2 0 0 0 0 0 0
+ G 0 0 1 0 0 1 0 5 0 0 0 0 0 0 0 0
+ H 0 0 0 2 0 0 5 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 5 0 0 0 0 3 0 0 5 0 0 0
+ J 0 0 0 0 0 2 0 0 3 0 5 0 0 1 0 0
+ K 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0
+ L 0 0 0 0 0 0 0 1 0 0 5 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 5 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -415,23 +413,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 5 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 3 0 0 4 0 0 0 0 0 0 0
- F 0 5 0 0 3 0 5 0 0 4 0 0 0 0 0 0
- G 0 0 5 0 0 5 0 0 0 0 2 0 0 0 0 0
- H 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 5 0 0 5 0 0 0
- J 0 0 0 0 0 4 0 0 5 0 5 0 0 1 0 0
- K 0 0 0 0 0 0 2 0 0 5 0 4 0 0 5 0
- L 0 0 0 0 0 0 0 5 0 0 4 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 4 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 2 0 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 3 0 0 0 0 4 0 0 3 0 0 0 0 0 0 0
+ F 0 3 0 0 4 0 0 0 0 4 0 0 0 0 0 0
+ G 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 5 0 0 1 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 0 4 0 0 0 0 4 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 3 0
+ L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -483,22 +481,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- B 1 0 2 0 0 2 0 0 0 0 0 0 0 0 0
- C 0 2 0 2 0 0 3 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 3 0 0 0 0 0 0 0
- E 1 0 0 0 0 5 0 0 5 0 0 0 0 0 0
- F 0 2 0 0 5 0 5 0 0 0 0 0 0 0 0
- G 0 0 3 0 0 5 0 1 0 2 0 0 0 0 0
- H 0 0 0 3 0 0 1 0 0 0 1 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 0 2 0 0 0 0 0 0 5 0
- K 0 0 0 0 0 0 0 1 0 0 0 0 0 0 5
- L 0 0 0 0 0 0 0 0 5 0 0 0 2 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 1 0 5
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 5 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
+ A 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 0 0 0 2 0 0 0 0 0 0 0 0
+ D 1 0 0 0 1 0 0 4 0 0 0 0 0 0 0
+ E 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 3 0 0 0 0 0
+ G 0 0 2 0 0 0 0 0 0 0 4 0 0 0 0
+ H 0 0 0 4 0 0 0 0 5 0 0 2 0 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ J 0 0 0 0 0 3 0 0 0 0 5 0 0 3 0
+ K 0 0 0 0 0 0 4 0 0 5 0 0 0 0 1
+ L 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 4 0 4
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -550,91 +548,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0
- F 0 3 0 0 1 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 4 0 0 2 0 0 0 0 0
- H 0 0 0 4 0 0 4 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 0 0 0 4 0 0 0
- J 0 0 0 0 0 3 0 0 0 0 5 0 0 3 0 0
- K 0 0 0 0 0 0 2 0 0 5 0 4 0 0 4 0
- L 0 0 0 0 0 0 0 4 0 0 4 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 2 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-Consider some examples
-Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 1 0 3 0 0 0 0 0
- B 1 0 2 0 2 0 0 0 0
- C 0 2 0 0 0 2 0 0 0
- D 3 0 0 0 1 0 2 0 0
- E 0 2 0 1 0 3 0 1 0
- F 0 0 2 0 3 0 0 0 1
- G 0 0 0 2 0 0 0 2 0
- H 0 0 0 0 1 0 2 0 1
- I 0 0 0 0 0 1 0 1 0
-Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
-Example 2: What is the least cost path from node A to node I? Return the sequence of nodes in response.
-   A B C D E F G H I
- A 0 4 0 2 0 0 0 0 0
- B 4 0 4 0 3 0 0 0 0
- C 0 4 0 0 0 3 0 0 0
- D 2 0 0 0 0 0 4 0 0
- E 0 3 0 0 0 3 0 0 0
- F 0 0 3 0 3 0 0 0 1
- G 0 0 0 4 0 0 0 3 0
- H 0 0 0 0 0 0 3 0 4
- I 0 0 0 0 0 1 0 4 0
-Solution: A -&gt; B -&gt; E -&gt; F -&gt; I
-Example 3: What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 5 0 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0
- F 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0
- G 0 0 4 0 0 4 0 5 0 0 5 0 0 0 0 0
- H 0 0 0 3 0 0 5 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 2 0 0 4 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 4 0 0
- K 0 0 0 0 0 0 5 0 0 0 0 2 0 0 1 0
- L 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 5 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0
-Solution: A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P
- Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 5 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 5 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0
- F 0 4 0 0 1 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 5 0 0 0 0 2 0 0 0 0 0 0 0 0
- H 0 0 0 2 0 0 2 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 3 0 0 0 0 2 0 0 1 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 4 0 0 2 0
- L 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 5 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 2 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 4 0 0 3 0 0 0 0 0 0 0
+ F 0 3 0 0 4 0 3 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 3 0 4 0 0 4 0 0 0 0 0
+ H 0 0 0 2 0 0 4 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 3 0 0 4 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0 0
+ K 0 0 0 0 0 0 4 0 0 4 0 5 0 0 4 0
+ L 0 0 0 0 0 0 0 2 0 0 5 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -686,255 +616,262 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
- A 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0
- B 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 5 0 0 4 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 4 0 0 0 0 0 0 0
- E 2 0 0 0 0 1 0 0 3 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 3 0 0 0 0 0
- G 0 0 4 0 0 0 0 3 0 0 5 0 0 0 0
- H 0 0 0 4 0 0 3 0 0 0 0 4 0 0 0
- I 0 0 0 0 3 0 0 0 0 0 0 0 5 0 0
- J 0 0 0 0 0 3 0 0 0 0 2 0 0 0 0
- K 0 0 0 0 0 0 5 0 0 2 0 4 0 0 0
- L 0 0 0 0 0 0 0 4 0 0 4 0 0 0 5
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 3 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
+ A 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0
+ B 4 0 1 0 0 2 0 0 0 0 0 0 0 0 0
+ C 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 3 0 0 0 0 0 0 0
+ E 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ F 0 2 0 0 0 0 4 0 0 3 0 0 0 0 0
+ G 0 0 0 0 0 4 0 2 0 0 5 0 0 0 0
+ H 0 0 0 3 0 0 2 0 0 0 0 4 0 0 0
+ I 0 0 0 0 1 0 0 0 0 4 0 0 0 0 0
+ J 0 0 0 0 0 3 0 0 4 0 5 0 5 0 0
+ K 0 0 0 0 0 0 5 0 0 5 0 0 0 1 0
+ L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 5 0 4
+ O 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t>A -&gt; E -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P</t>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 3 0 0 0 0 0
+ B 1 0 2 0 2 0 0 0 0
+ C 0 2 0 0 0 2 0 0 0
+ D 3 0 0 0 1 0 2 0 0
+ E 0 2 0 1 0 3 0 1 0
+ F 0 0 2 0 3 0 0 0 1
+ G 0 0 0 2 0 0 0 2 0
+ H 0 0 0 0 1 0 2 0 1
+ I 0 0 0 0 0 1 0 1 0
+Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
+Example 2: What is the least cost path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 4 0 2 0 0 0 0 0
+ B 4 0 4 0 3 0 0 0 0
+ C 0 4 0 0 0 3 0 0 0
+ D 2 0 0 0 0 0 4 0 0
+ E 0 3 0 0 0 3 0 0 0
+ F 0 0 3 0 3 0 0 0 1
+ G 0 0 0 4 0 0 0 3 0
+ H 0 0 0 0 0 0 3 0 4
+ I 0 0 0 0 0 1 0 4 0
+Solution: A -&gt; B -&gt; E -&gt; F -&gt; I
+Example 3: What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 5 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0
+ G 0 0 4 0 0 4 0 5 0 0 5 0 0 0 0 0
+ H 0 0 0 3 0 0 5 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 2 0 0 4 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 4 0 0
+ K 0 0 0 0 0 0 5 0 0 0 0 2 0 0 1 0
+ L 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 5 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0
+Solution: A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P
+ Given these examples, answer the following quesiton.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 5 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0
+ H 0 0 0 4 0 0 2 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 5 0 0 4 0 0 0
+ J 0 0 0 0 0 5 0 0 5 0 1 0 0 2 0 0
+ K 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0
+ L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 2 0 0 3 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 3 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; M -&gt; N</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; N -&gt; O</t>
   </si>
   <si>
     <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P</t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; K -&gt; O</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; K -&gt; O</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; O</t>
-  </si>
-  <si>
-    <t>Possible Paths:
-1) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
-2) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O -&gt; P
-3) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P
-4) A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P
-5) A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; L -&gt; P
-The least cost path from node A to node P is: A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>There are several possible paths from node A to node P in the given graph. Let's list them down:
-1. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; K -&gt; O -&gt; P
-2. A -&gt; B -&gt; F -&gt; G -&gt; O -&gt; P
-3. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; N -&gt; P
-4. A -&gt; B -&gt; F -&gt; G -&gt; N -&gt; P
-5. A -&gt; B -&gt; F -&gt; H -&gt; K -&gt; O -&gt; P
-6. A -&gt; B -&gt; F -&gt; H -&gt; K -&gt; N -&gt; P
-7. A -&gt; B -&gt; F -&gt; H -&gt; L -&gt; P
-8. A -&gt; B -&gt; F -&gt; H -&gt; M -&gt; N -&gt; P
-9. A -&gt; B -&gt; F -&gt; L -&gt; P
-10. A -&gt; B -&gt; F -&gt; M -&gt; N -&gt; P
-11. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; K -&gt; O -&gt; P
-12. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; K -&gt; N -&gt; P
-13. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
-14. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; N -&gt; P
-15. A -&gt; B -&gt; C -&gt; E -&gt; I -&gt; P
-16. A -&gt; B -&gt; C -&gt; E -&gt; J -&gt; P
-17. A -&gt; B -&gt; C -&gt; E -&gt; M -&gt; N -&gt; P
-18. A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; H -&gt; K -&gt; O -&gt; P
-19. A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; N -&gt; P
-20. A -&gt; B -&gt; E -&gt; F -&gt; H -&gt; K -&gt; O -&gt; P
-21. A -&gt; B -&gt; E -&gt; F -&gt; H -&gt; K -&gt; N -&gt; P
-22. A -&gt; B -&gt; E -&gt; F -&gt; H -&gt; L -&gt; P
-23. A -&gt; B -&gt; E -&gt; F -&gt; H -&gt; M -&gt; N -&gt; P
-24. A -&gt; B -&gt; E -&gt; F -&gt; L -&gt; P
-25. A -&gt; B -&gt; E -&gt; F -&gt; M -&gt; N -&gt; P
-26. A -&gt; C -&gt; D -&gt; H -&gt; K -&gt; O -&gt; P
-27. A -&gt; C -&gt; D -&gt; H -&gt; K -&gt; N -&gt; P
-28. A -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
-29. A -&gt; C -&gt; D -&gt; H -&gt; M -&gt; N -&gt; P
-30. A -&gt; C -&gt; E -&gt; I -&gt; P
-31. A -&gt; C -&gt; E -&gt; J -&gt; P
-32. A -&gt; C -&gt; E -&gt; M -&gt; N -&gt; P
-33. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; K -&gt; O -&gt; P
-34. A -&gt; E -&gt; F -&gt; G -&gt; N -&gt; P
-35. A -&gt; E -&gt; F -&gt; H -&gt; K -&gt; O -&gt; P
-36. A -&gt; E -&gt; F -&gt; H -&gt; K -&gt; N -&gt; P
-37. A -&gt; E -&gt; F -&gt; H -&gt; L -&gt; P
-38. A -&gt; E -&gt; F -&gt; H -&gt; M -&gt; N -&gt; P
-39. A -&gt; E -&gt; F -&gt; L -&gt; P
-40. A -&gt; E -&gt; F -&gt; M -&gt; N -&gt; P
-Now, let's compare the costs of each path to find the least cost path.</t>
-  </si>
-  <si>
-    <t>Here are all the possible paths from node A to node P in the given graph:
-1. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 22)
-2. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; P (cost: 20)
-3. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; O -&gt; P (cost: 20)
-4. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (cost: 21)
-5. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 20)
-6. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost: 18)
-7. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (cost: 17)
-8. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; K -&gt; L -&gt; O -&gt; P (cost: 18)
-9. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (cost: 19)
-10. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost: 19)
-11. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 18)
-12. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; K -&gt; L -&gt; O -&gt; P (cost: 19)
-13. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost: 19)
-14. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 18)
-15. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; O -&gt; P (cost: 19)
-16. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (cost: 20)
-17. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 19)
-18. A -&gt; E -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost: 18)
-19. A -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 17)
-20. A -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; O -&gt; P (cost: 18)
-21. A -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (cost: 19)
-22. A -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 18)
-23. A -&gt; E -&gt; F -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost: 18)
-24. A -&gt; E -&gt; F -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 17)
-25. A -&gt; E -&gt; F -&gt; I -&gt; J -&gt; K -&gt; L -&gt; O -&gt; P (cost: 18)
-26. A -&gt; E -&gt; F -&gt; I -&gt; J -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (cost: 19)
-27. A -&gt; E -&gt; F -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 18)
-28. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P (cost: 15)
-29. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; L -&gt; O -&gt; P (cost: 16)
-30. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (cost: 17)
-31. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P (cost: 16)
-32. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (cost: 17)
-33. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; L -&gt; O -&gt; P (cost: 18)
-34. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (cost: 19)
-35. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (cost: 18)
-36. A -&gt; E -&gt; H -&gt; I -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (cost: 18)
-37. A -&gt; E -&gt; H -&gt; I -&gt; F -&gt; G -&gt; K -&gt; L -&gt; O -&gt; P (cost: 19)
-38. A -&gt; E -&gt; H -&gt; I -&gt; F -&gt; G -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (cost: 20)
-39. A -&gt; E -&gt; H -&gt; I -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (cost: 19)
-40. A -&gt; E -&gt; H -&gt; I -&gt; J -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (cost: 19)
-41. A -&gt; E -&gt; H -&gt; I -&gt; J -&gt; F -&gt; G -&gt; K -&gt; L -&gt; O -&gt; P (cost: 20)
-42. A -&gt; E -&gt; H -&gt; I -&gt; J -&gt; F -&gt; G -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (cost: 21)
-43. A -&gt; E -&gt; H -&gt; I -&gt; J -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (cost: 20)
-The least cost path from node A to node P is: A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P with a cost of 15.</t>
-  </si>
-  <si>
-    <t>Possible paths from A to O:
-1. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; K -&gt; O
-2. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; O
-3. A -&gt; B -&gt; C -&gt; F -&gt; O
-4. A -&gt; B -&gt; C -&gt; O
-5. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; O
-6. A -&gt; B -&gt; F -&gt; G -&gt; O
-7. A -&gt; B -&gt; F -&gt; O
-8. A -&gt; B -&gt; O
-9. A -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O
-The least cost path from node A to node O is A -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O.</t>
-  </si>
-  <si>
     <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (cost = 3 + 2 + 1 + 1 + 3 + 3 = 13)
-2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O -&gt; P (cost = 3 + 2 + 1 + 1 + 3 + 4 = 14)
-3. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O -&gt; N -&gt; P (cost = 3 + 2 + 1 + 1 + 3 + 5 + 5 = 20)
-4. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O -&gt; M -&gt; N -&gt; P (cost = 3 + 2 + 1 + 1 + 3 + 5 + 3 + 3 = 21)
-5. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O -&gt; M -&gt; L -&gt; P (cost = 3 + 2 + 1 + 1 + 3 + 5 + 3 + 1 = 19)
-6. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; G -&gt; K -&gt; O -&gt; P (cost = 3 + 2 + 1 + 1 + 3 + 4 + 2 + 3 = 19)
-7. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; G -&gt; K -&gt; L -&gt; P (cost = 3 + 2 + 1 + 1 + 3 + 4 + 2 + 1 = 17)
-8. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; G -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (cost = 3 + 2 + 1 + 1 + 3 + 4 + 5 + 2 + 3 + 3 = 27)
-9. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; G -&gt; C -&gt; D -&gt; H -&gt; L -&gt; O -&gt; M -&gt; N -&gt; P (cost = 3 + 2 + 1 + 1 + 3 + 4 + 5 + 2 + 3 + 3 + 4 + 5 + 3 + 3 = 42)
-The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; G -&gt; K -&gt; L -&gt; P, with a cost of 17.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 40)
-2) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; P (cost: 39)
-3) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; O -&gt; P (cost: 40)
-4) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (cost: 40)
-5) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 41)
-6) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost: 41)
-7) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 41)
-8) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; K -&gt; O -&gt; P (cost: 42)
-9) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P (cost: 42)
-10) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 42)
-11) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; J -&gt; K -&gt; O -&gt; P (cost: 43)
-12) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; J -&gt; N -&gt; O -&gt; P (cost: 43)
-13) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 43)
-14) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 44)
-15) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; I -&gt; N -&gt; O -&gt; P (cost: 44)
-16) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 44)
-17) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 45)
-18) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P (cost: 45)
-19) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 44)
-20) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 45)
-21) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; G -&gt; H -&gt; I -&gt; N -&gt; O -&gt; P (cost: 45)
-From the above paths, the least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; P with a cost of 39.</t>
+1) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; K -&gt; O -&gt; P (cost = 16)
+2) A -&gt; B -&gt; E -&gt; D -&gt; H -&gt; K -&gt; O -&gt; P (cost = 16)
+3) A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (cost = 15)
+4) A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; L -&gt; P (cost = 15)
+5) A -&gt; B -&gt; E -&gt; H -&gt; K -&gt; O -&gt; P (cost = 16)
+6) A -&gt; B -&gt; E -&gt; H -&gt; L -&gt; P (cost = 16)
+The least cost path from node A to node P is path 3: A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P.</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P:
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (cost = 14)
+2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; P (cost = 16)
+3. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; N -&gt; P (cost = 15)
+4. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P (cost = 18)
+5. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; M -&gt; P (cost = 20)
+6. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; N -&gt; P (cost = 19)
+The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P, with a cost of 14.</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node N:
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; N    (cost = 3 + 2 + 4 + 4 + 5 + 3 = 21)
+2. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; N          (cost = 3 + 2 + 4 + 4 + 4 = 17)
+3. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; K -&gt; N      (cost = 3 + 2 + 4 + 4 + 1 + 1 = 15)
+4. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; L -&gt; N      (cost = 3 + 2 + 4 + 4 + 5 = 18)
+5. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; O -&gt; N      (cost = 3 + 2 + 4 + 4 + 3 = 16)
+6. A -&gt; B -&gt; C -&gt; F -&gt; N                (cost = 3 + 2 + 4 = 9)
+7. A -&gt; E -&gt; G -&gt; N                      (cost = 5 + 4 + 1 = 10)
+8. A -&gt; E -&gt; I -&gt; J -&gt; N                  (cost = 5 + 3 + 1 + 2 = 11)
+9. A -&gt; E -&gt; I -&gt; N                        (cost = 5 + 3 + 1 = 9)
+The least cost path from node A to node N is A -&gt; E -&gt; I -&gt; N with a cost of 9.</t>
+  </si>
+  <si>
+    <t>Possible Paths from A to O:
+1. A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O     (Cost: 12)
+2. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O     (Cost: 16)
+3. A -&gt; B -&gt; E -&gt; I -&gt; J -&gt; K -&gt; O     (Cost: 19)
+4. A -&gt; D -&gt; F -&gt; G -&gt; K -&gt; O               (Cost: 11)
+5. A -&gt; D -&gt; F -&gt; J -&gt; K -&gt; O               (Cost: 15)
+6. A -&gt; D -&gt; H -&gt; G -&gt; K -&gt; O              (Cost: 10)
+7. A -&gt; D -&gt; H -&gt; L -&gt; K -&gt; O              (Cost: 12)
+8. A -&gt; D -&gt; H -&gt; M -&gt; N -&gt; O            (Cost: 9)
+9. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O               (Cost: 14)
+10. A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; O                (Cost: 17)
+11. A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O              (Cost: 13)
+12. A -&gt; E -&gt; M -&gt; N -&gt; O                    (Cost: 11)
+13. A -&gt; D -&gt; H -&gt; M -&gt; O                     (Cost: 8)
+14. A -&gt; D -&gt; H -&gt; N -&gt; O                      (Cost: 7)
+15. A -&gt; D -&gt; N -&gt; O                              (Cost: 6)
+16. A -&gt; E -&gt; M -&gt; O                             (Cost: 7)
+The least cost path from node A to node O is A -&gt; D -&gt; H -&gt; N -&gt; O with a total cost of 7.</t>
+  </si>
+  <si>
+    <t>Possible Paths from A to P:
+1. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (Cost: 50)
+2. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (Cost: 52)
+3. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (Cost: 52)
+4. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; M -&gt; P (Cost: 52)
+5. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; K -&gt; O -&gt; P (Cost: 40)
+6. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; K -&gt; L -&gt; P (Cost: 42)
+7. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (Cost: 47)
+8. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; K -&gt; L -&gt; N -&gt; M -&gt; P (Cost: 47)
+9. A -&gt; B -&gt; E -&gt; K -&gt; O -&gt; P (Cost: 14)
+10. A -&gt; B -&gt; E -&gt; K -&gt; L -&gt; P (Cost: 16)
+11. A -&gt; B -&gt; E -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (Cost: 21)
+12. A -&gt; B -&gt; E -&gt; K -&gt; L -&gt; N -&gt; M -&gt; P (Cost: 21)
+13. A -&gt; E -&gt; K -&gt; O -&gt; P (Cost: 19)
+14. A -&gt; E -&gt; K -&gt; L -&gt; P (Cost: 21)
+15. A -&gt; E -&gt; K -&gt; L -&gt; N -&gt; O -&gt; P (Cost: 26)
+16. A -&gt; E -&gt; K -&gt; L -&gt; N -&gt; M -&gt; P (Cost: 26)
+The least cost path from node A to node P is A -&gt; B -&gt; E -&gt; K -&gt; O -&gt; P with a cost of 14.</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P:
+1. A -&gt; B -&gt; C -&gt; G -&gt; O -&gt; P
+   Cost: 2 + 4 + 3 + 1 + 4 = 14
+2. A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; P
+   Cost: 2 + 4 + 3 + 5 + 4 = 18
+3. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; N -&gt; P
+   Cost: 2 + 4 + 3 + 5 + 2 + 4 = 20
+4. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; N -&gt; P
+   Cost: 3 + 4 + 4 + 2 + 4 = 17
+The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; N -&gt; P with a total cost of 17.</t>
   </si>
   <si>
     <t>Possible paths from node A to node O:
-1. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O (cost = 10)
-2. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; O (cost = 9)
-3. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O (cost = 8)
-4. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; O (cost = 8)
-5. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O (cost = 7)
-6. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O (cost = 6)
-7. A -&gt; K -&gt; O (cost = 5)
-The least cost path from node A to node O is A -&gt; K -&gt; O.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P
-2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; G -&gt; K -&gt; O -&gt; P
-3. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; G -&gt; M -&gt; N -&gt; P
-4. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; G -&gt; M -&gt; L -&gt; K -&gt; O -&gt; P
-5. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P
-6. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P
-7. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; N -&gt; M -&gt; L -&gt; K -&gt; O -&gt; P
-Now, let's compare the costs of these paths to find the least cost path:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (Cost = 4 + 1 + 4 + 3 + 4 = 16)
-2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; G -&gt; K -&gt; O -&gt; P (Cost = 4 + 1 + 4 + 3 + 4 + 2 + 4 + 4 = 26)
-3. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; G -&gt; M -&gt; N -&gt; P (Cost = 4 + 1 + 4 + 3 + 4 + 2 + 2 + 3 = 23)
-4. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; G -&gt; M -&gt; L -&gt; K -&gt; O -&gt; P (Cost = 4 + 1 + 4 + 3 + 4 + 2 + 2 + 4 + 4 + 4 = 36)
-5. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P (Cost = 5 + 3 + 5 + 3 + 5 + 4 = 25)
-6. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P (Cost = 5 + 3 + 5 + 3 + 5 + 3 = 24)
-7. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; N -&gt; M -&gt; L -&gt; K -&gt; O -&gt; P (Cost = 5 + 3 + 5 + 3 + 5 + 3 + 2 + 4 + 4 + 4 = 38)
-The least cost path from node A to node P is A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P with a cost of 24.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (cost: 18)
-2. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (cost: 18)
-3. A -&gt; E -&gt; I -&gt; N -&gt; P (cost: 14)
-4. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (cost: 13)
-5. A -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P (cost: 12)
-6. A -&gt; E -&gt; F -&gt; J -&gt; M -&gt; N -&gt; P (cost: 11)
-7. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P (cost: 11)
-8. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P (cost: 11)
-9. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P (cost: 11)
-10. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; P (cost: 11)
-The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; J -&gt; M -&gt; N -&gt; P with a cost of 11.</t>
+1) A - D - H - K - O (cost = 1 + 4 + 5 + 4 = 14)
+2) A - D - H - L - M - O (cost = 1 + 4 + 2 + 4 + 4 = 15)
+3) A - D - H - L - N - O (cost = 1 + 4 + 2 + 4 + 4 = 15)
+4) A - D - H - L - N - P - O (cost = 1 + 4 + 2 + 4 + 4 + 3 = 18)
+5) A - E - F - J - N - O (cost = 2 + 3 + 3 + 4 + 4 = 16)
+6) A - E - F - J - N - P - O (cost = 2 + 3 + 3 + 4 + 4 + 3 = 19)
+7) A - E - F - J - N - P - O (cost = 2 + 3 + 3 + 4 + 4 + 3 = 19)
+8) A - E - F - J - N - P - O (cost = 2 + 3 + 3 + 4 + 4 + 3 = 19)
+9) A - E - F - J - N - P - O (cost = 2 + 3 + 3 + 4 + 4 + 3 = 19)
+10) A - E - F - J - N - P - O (cost = 2 + 3 + 3 + 4 + 4 + 3 = 19)
+11) A - E - F - J - N - P - O (cost = 2 + 3 + 3 + 4 + 4 + 3 = 19)
+12) A - E - F - J - N - P - O (cost = 2 + 3 + 3 + 4 + 4 + 3 = 19)
+13) A - E - F - J - N - P - O (cost = 2 + 3 + 3 + 4 + 4 + 3 = 19)
+14) A - E - F - J - N - P - O (cost = 2 + 3 + 3 + 4 + 4 + 3 = 19)
+15) A - E - F - J - N - P - O (cost = 2 + 3 + 3 + 4 + 4 + 3 = 19)
+16) A - E - F - J - N - P - O (cost = 2 + 3 + 3 + 4 + 4 + 3 = 19)
+The least cost path from node A to node O is A - D - H - K - O with a cost of 14.</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P: 
+1. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P (Cost: 7)
+2. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; L -&gt; P (Cost: 12)
+3. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P (Cost: 15)
+4. A -&gt; B -&gt; F -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P (Cost: 9)
+5. A -&gt; B -&gt; F -&gt; C -&gt; G -&gt; K -&gt; L -&gt; P (Cost: 14)
+6. A -&gt; B -&gt; F -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P (Cost: 17)
+7. A -&gt; E -&gt; F -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P (Cost: 8)
+8. A -&gt; E -&gt; F -&gt; C -&gt; G -&gt; K -&gt; L -&gt; P (Cost: 13)
+9. A -&gt; E -&gt; F -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P (Cost: 16)
+The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P, with a cost of 8.</t>
   </si>
   <si>
     <t>Possible paths from node A to node O:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O
-2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; M -&gt; O
-3. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; O
-4. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O
-5. A -&gt; B -&gt; C -&gt; D -&gt; O
-6. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O
-7. A -&gt; B -&gt; C -&gt; G -&gt; O
-8. A -&gt; B -&gt; C -&gt; O
-9. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O
-10. A -&gt; E -&gt; F -&gt; G -&gt; O
-11. A -&gt; E -&gt; F -&gt; O
-Comparing the costs of these paths, we can see that the least cost path from node A to node O is:
-A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; O</t>
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; O (cost = 13)
+2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; O (cost = 14)
+3. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; N -&gt; O (cost = 19)
+4. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O (cost = 12)
+5. A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; O (cost = 11)
+6. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; O (cost = 14)
+7. A -&gt; B -&gt; F -&gt; G -&gt; N -&gt; O (cost = 13)
+8. A -&gt; B -&gt; F -&gt; I -&gt; J -&gt; N -&gt; O (cost = 14)
+The least cost path from node A to node O is A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; O with a cost of 11.</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P:
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (cost: 7)
+2. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P (cost: 8)
+3. A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (cost: 7)
+4. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (cost: 8)
+5. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; P (cost: 8)
+6. A -&gt; E -&gt; F -&gt; G -&gt; L -&gt; P (cost: 8)
+7. A -&gt; E -&gt; M -&gt; N -&gt; O -&gt; P (cost: 9)
+The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P, with a cost of 7.</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1331,7 +1268,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1342,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1353,7 +1290,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1364,7 +1301,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1372,10 +1309,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1383,10 +1320,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1394,10 +1331,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1405,10 +1342,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1416,10 +1353,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
